--- a/results/xlsx_reports/Rosenbrock_PSO.xlsx
+++ b/results/xlsx_reports/Rosenbrock_PSO.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.08314286406627e-05</v>
+      </c>
+      <c r="C2" t="n">
         <v>13.43857316989456</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.08314286406627e-05</v>
       </c>
       <c r="D2" t="n">
         <v>7841.701185171555</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.0123252654961415</v>
+      </c>
+      <c r="C3" t="n">
         <v>612.5238292437245</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0123252654961415</v>
       </c>
       <c r="D3" t="n">
         <v>141066.5803687349</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.0941731446668814</v>
+      </c>
+      <c r="C4" t="n">
         <v>2516.535136500473</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0941731446668814</v>
       </c>
       <c r="D4" t="n">
         <v>274042.628958274</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.0232076512342847</v>
+      </c>
+      <c r="C5" t="n">
         <v>960.6387355275564</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0232076512342847</v>
       </c>
       <c r="D5" t="n">
         <v>70206.58788681233</v>
